--- a/quality_factors.xlsx
+++ b/quality_factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B02AF-0054-48F2-B44E-D8311B637E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9A309E-A250-4F87-9BB6-C9CCE2C2B90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,6 +459,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
